--- a/xlsx/愛沙尼亞_intext.xlsx
+++ b/xlsx/愛沙尼亞_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="942">
   <si>
     <t>愛沙尼亞</t>
   </si>
@@ -29,7 +29,7 @@
     <t>愛沙尼亞語</t>
   </si>
   <si>
-    <t>政策_政策_美國_愛沙尼亞</t>
+    <t>体育运动_体育运动_南非_愛沙尼亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A%E5%9B%BD%E6%97%97</t>
@@ -650,6 +650,12 @@
     <t>佔領波羅的海國家</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E4%B8%81%E8%BB%8A</t>
+  </si>
+  <si>
+    <t>卡丁車</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%AE%BE%E7%89%B9%E6%B4%9B%E7%94%AB</t>
   </si>
   <si>
@@ -1106,12 +1112,6 @@
     <t>en-Territorial changes of the Baltic states</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E6%A1%A3%E6%A1%88%E9%A6%86</t>
-  </si>
-  <si>
-    <t>互联网档案馆</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Eurydice</t>
   </si>
   <si>
@@ -1214,10 +1214,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1310,10 +1334,16 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -1328,10 +1358,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -1424,18 +1454,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1460,10 +1490,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1514,16 +1544,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1532,10 +1568,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -3153,7 +3189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I491"/>
+  <dimension ref="A1:I497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3323,7 +3359,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -5324,7 +5360,7 @@
         <v>146</v>
       </c>
       <c r="G75" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -5846,7 +5882,7 @@
         <v>180</v>
       </c>
       <c r="G93" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -6397,7 +6433,7 @@
         <v>218</v>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -6426,7 +6462,7 @@
         <v>220</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -6484,7 +6520,7 @@
         <v>224</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -6542,7 +6578,7 @@
         <v>228</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -6629,7 +6665,7 @@
         <v>234</v>
       </c>
       <c r="G120" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -6658,7 +6694,7 @@
         <v>236</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -7000,10 +7036,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7029,13 +7065,13 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -7064,7 +7100,7 @@
         <v>262</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -7122,7 +7158,7 @@
         <v>266</v>
       </c>
       <c r="G137" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -7151,7 +7187,7 @@
         <v>268</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -7180,7 +7216,7 @@
         <v>270</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -7209,7 +7245,7 @@
         <v>272</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -7296,7 +7332,7 @@
         <v>278</v>
       </c>
       <c r="G143" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -7325,7 +7361,7 @@
         <v>280</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -7725,10 +7761,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7754,13 +7790,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>117</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>118</v>
       </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -7789,7 +7825,7 @@
         <v>310</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -8079,7 +8115,7 @@
         <v>330</v>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -8108,7 +8144,7 @@
         <v>332</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -8253,7 +8289,7 @@
         <v>342</v>
       </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -8282,7 +8318,7 @@
         <v>344</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -8479,10 +8515,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8508,10 +8544,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8566,13 +8602,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -8601,7 +8637,7 @@
         <v>360</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8856,10 +8892,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F197" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8885,10 +8921,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F198" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9001,10 +9037,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F202" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9088,10 +9124,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F205" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9117,10 +9153,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F206" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9146,10 +9182,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F207" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -9204,10 +9240,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F209" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G209" t="n">
         <v>4</v>
@@ -9262,10 +9298,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F211" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9471,7 +9507,7 @@
         <v>400</v>
       </c>
       <c r="G218" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -9500,7 +9536,7 @@
         <v>402</v>
       </c>
       <c r="G219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9529,7 +9565,7 @@
         <v>404</v>
       </c>
       <c r="G220" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -9558,7 +9594,7 @@
         <v>406</v>
       </c>
       <c r="G221" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -9587,7 +9623,7 @@
         <v>408</v>
       </c>
       <c r="G222" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -9616,7 +9652,7 @@
         <v>410</v>
       </c>
       <c r="G223" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -9645,7 +9681,7 @@
         <v>412</v>
       </c>
       <c r="G224" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -9674,7 +9710,7 @@
         <v>414</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -9703,7 +9739,7 @@
         <v>416</v>
       </c>
       <c r="G226" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -9732,7 +9768,7 @@
         <v>418</v>
       </c>
       <c r="G227" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -9761,7 +9797,7 @@
         <v>420</v>
       </c>
       <c r="G228" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -9790,7 +9826,7 @@
         <v>422</v>
       </c>
       <c r="G229" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -9819,7 +9855,7 @@
         <v>424</v>
       </c>
       <c r="G230" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -9848,7 +9884,7 @@
         <v>426</v>
       </c>
       <c r="G231" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -9877,7 +9913,7 @@
         <v>428</v>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -9906,7 +9942,7 @@
         <v>430</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -9935,7 +9971,7 @@
         <v>432</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9964,7 +10000,7 @@
         <v>434</v>
       </c>
       <c r="G235" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9993,7 +10029,7 @@
         <v>436</v>
       </c>
       <c r="G236" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -10022,7 +10058,7 @@
         <v>438</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -10051,7 +10087,7 @@
         <v>440</v>
       </c>
       <c r="G238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -10138,7 +10174,7 @@
         <v>446</v>
       </c>
       <c r="G241" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -10196,7 +10232,7 @@
         <v>450</v>
       </c>
       <c r="G243" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -10283,7 +10319,7 @@
         <v>456</v>
       </c>
       <c r="G246" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -10312,7 +10348,7 @@
         <v>458</v>
       </c>
       <c r="G247" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10341,7 +10377,7 @@
         <v>460</v>
       </c>
       <c r="G248" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -10370,7 +10406,7 @@
         <v>462</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10399,7 +10435,7 @@
         <v>464</v>
       </c>
       <c r="G250" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10428,7 +10464,7 @@
         <v>466</v>
       </c>
       <c r="G251" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -10457,7 +10493,7 @@
         <v>468</v>
       </c>
       <c r="G252" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -10486,7 +10522,7 @@
         <v>470</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10544,7 +10580,7 @@
         <v>474</v>
       </c>
       <c r="G255" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -10573,7 +10609,7 @@
         <v>476</v>
       </c>
       <c r="G256" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -10602,7 +10638,7 @@
         <v>478</v>
       </c>
       <c r="G257" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -10631,7 +10667,7 @@
         <v>480</v>
       </c>
       <c r="G258" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10689,7 +10725,7 @@
         <v>484</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10718,7 +10754,7 @@
         <v>486</v>
       </c>
       <c r="G261" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10747,7 +10783,7 @@
         <v>488</v>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10776,7 +10812,7 @@
         <v>490</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10863,7 +10899,7 @@
         <v>496</v>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10892,7 +10928,7 @@
         <v>498</v>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10921,7 +10957,7 @@
         <v>500</v>
       </c>
       <c r="G268" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10979,7 +11015,7 @@
         <v>504</v>
       </c>
       <c r="G270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -11008,7 +11044,7 @@
         <v>506</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -11095,7 +11131,7 @@
         <v>512</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11153,7 +11189,7 @@
         <v>516</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -11269,7 +11305,7 @@
         <v>524</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -11298,7 +11334,7 @@
         <v>526</v>
       </c>
       <c r="G281" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -11385,7 +11421,7 @@
         <v>532</v>
       </c>
       <c r="G284" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -11414,7 +11450,7 @@
         <v>534</v>
       </c>
       <c r="G285" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -11472,7 +11508,7 @@
         <v>538</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11501,7 +11537,7 @@
         <v>540</v>
       </c>
       <c r="G288" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11559,7 +11595,7 @@
         <v>544</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11588,7 +11624,7 @@
         <v>546</v>
       </c>
       <c r="G291" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11646,7 +11682,7 @@
         <v>550</v>
       </c>
       <c r="G293" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11675,7 +11711,7 @@
         <v>552</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -11762,7 +11798,7 @@
         <v>558</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -11791,7 +11827,7 @@
         <v>560</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11820,7 +11856,7 @@
         <v>562</v>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -11988,10 +12024,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>483</v>
+        <v>573</v>
       </c>
       <c r="F305" t="s">
-        <v>484</v>
+        <v>574</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12017,10 +12053,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F306" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12046,13 +12082,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F307" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -12075,10 +12111,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>489</v>
+        <v>579</v>
       </c>
       <c r="F308" t="s">
-        <v>490</v>
+        <v>580</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12104,13 +12140,13 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F309" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12133,10 +12169,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F310" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12162,10 +12198,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>581</v>
+        <v>493</v>
       </c>
       <c r="F311" t="s">
-        <v>582</v>
+        <v>494</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12191,13 +12227,13 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="F312" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12220,13 +12256,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F313" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12249,10 +12285,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>587</v>
+        <v>499</v>
       </c>
       <c r="F314" t="s">
-        <v>588</v>
+        <v>500</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12284,7 +12320,7 @@
         <v>590</v>
       </c>
       <c r="G315" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12313,7 +12349,7 @@
         <v>592</v>
       </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12342,7 +12378,7 @@
         <v>594</v>
       </c>
       <c r="G317" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -12371,7 +12407,7 @@
         <v>596</v>
       </c>
       <c r="G318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12400,7 +12436,7 @@
         <v>598</v>
       </c>
       <c r="G319" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -12429,7 +12465,7 @@
         <v>600</v>
       </c>
       <c r="G320" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12458,7 +12494,7 @@
         <v>602</v>
       </c>
       <c r="G321" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12481,13 +12517,13 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>397</v>
+        <v>603</v>
       </c>
       <c r="F322" t="s">
-        <v>398</v>
+        <v>604</v>
       </c>
       <c r="G322" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12510,13 +12546,13 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G323" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12539,13 +12575,13 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F324" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -12568,13 +12604,13 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F325" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12597,13 +12633,13 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F326" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H326" t="s">
         <v>4</v>
@@ -12626,13 +12662,13 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F327" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G327" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -12655,13 +12691,13 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>613</v>
+        <v>397</v>
       </c>
       <c r="F328" t="s">
-        <v>614</v>
+        <v>398</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12690,7 +12726,7 @@
         <v>616</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12806,7 +12842,7 @@
         <v>624</v>
       </c>
       <c r="G333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12864,7 +12900,7 @@
         <v>628</v>
       </c>
       <c r="G335" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -12980,7 +13016,7 @@
         <v>636</v>
       </c>
       <c r="G339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -13038,7 +13074,7 @@
         <v>640</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -13096,7 +13132,7 @@
         <v>644</v>
       </c>
       <c r="G343" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -13270,7 +13306,7 @@
         <v>656</v>
       </c>
       <c r="G349" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13357,7 +13393,7 @@
         <v>662</v>
       </c>
       <c r="G352" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -13386,7 +13422,7 @@
         <v>664</v>
       </c>
       <c r="G353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -13415,7 +13451,7 @@
         <v>666</v>
       </c>
       <c r="G354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13444,7 +13480,7 @@
         <v>668</v>
       </c>
       <c r="G355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13502,7 +13538,7 @@
         <v>672</v>
       </c>
       <c r="G357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13531,7 +13567,7 @@
         <v>674</v>
       </c>
       <c r="G358" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13560,7 +13596,7 @@
         <v>676</v>
       </c>
       <c r="G359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
@@ -13583,13 +13619,13 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>445</v>
+        <v>677</v>
       </c>
       <c r="F360" t="s">
-        <v>446</v>
+        <v>678</v>
       </c>
       <c r="G360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -13612,10 +13648,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F361" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -13641,10 +13677,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F362" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13670,13 +13706,13 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F363" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="G363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -13699,13 +13735,13 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F364" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13728,10 +13764,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F365" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13757,13 +13793,13 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>687</v>
+        <v>455</v>
       </c>
       <c r="F366" t="s">
-        <v>688</v>
+        <v>456</v>
       </c>
       <c r="G366" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H366" t="s">
         <v>4</v>
@@ -13850,7 +13886,7 @@
         <v>694</v>
       </c>
       <c r="G369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -14024,7 +14060,7 @@
         <v>706</v>
       </c>
       <c r="G375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -14140,7 +14176,7 @@
         <v>714</v>
       </c>
       <c r="G379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H379" t="s">
         <v>4</v>
@@ -14285,7 +14321,7 @@
         <v>724</v>
       </c>
       <c r="G384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -14314,7 +14350,7 @@
         <v>726</v>
       </c>
       <c r="G385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
@@ -14401,7 +14437,7 @@
         <v>732</v>
       </c>
       <c r="G388" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -14488,7 +14524,7 @@
         <v>738</v>
       </c>
       <c r="G391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -14575,7 +14611,7 @@
         <v>744</v>
       </c>
       <c r="G394" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
@@ -14865,7 +14901,7 @@
         <v>764</v>
       </c>
       <c r="G404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H404" t="s">
         <v>4</v>
@@ -15004,10 +15040,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>457</v>
+        <v>773</v>
       </c>
       <c r="F409" t="s">
-        <v>458</v>
+        <v>774</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15033,13 +15069,13 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F410" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H410" t="s">
         <v>4</v>
@@ -15062,10 +15098,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F411" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15091,10 +15127,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F412" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15120,10 +15156,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="F413" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15149,10 +15185,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F414" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15178,10 +15214,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>783</v>
+        <v>467</v>
       </c>
       <c r="F415" t="s">
-        <v>784</v>
+        <v>468</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15613,10 +15649,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>697</v>
+        <v>813</v>
       </c>
       <c r="F430" t="s">
-        <v>698</v>
+        <v>814</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15642,10 +15678,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F431" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15671,10 +15707,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F432" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15700,10 +15736,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F433" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15729,10 +15765,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F434" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15758,10 +15794,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F435" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15787,10 +15823,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>823</v>
+        <v>709</v>
       </c>
       <c r="F436" t="s">
-        <v>824</v>
+        <v>710</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16025,7 +16061,7 @@
         <v>840</v>
       </c>
       <c r="G444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H444" t="s">
         <v>4</v>
@@ -16199,7 +16235,7 @@
         <v>852</v>
       </c>
       <c r="G450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -16315,7 +16351,7 @@
         <v>860</v>
       </c>
       <c r="G454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H454" t="s">
         <v>4</v>
@@ -16431,7 +16467,7 @@
         <v>868</v>
       </c>
       <c r="G458" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H458" t="s">
         <v>4</v>
@@ -16489,7 +16525,7 @@
         <v>872</v>
       </c>
       <c r="G460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H460" t="s">
         <v>4</v>
@@ -16541,10 +16577,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>583</v>
+        <v>875</v>
       </c>
       <c r="F462" t="s">
-        <v>584</v>
+        <v>876</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16570,10 +16606,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F463" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16599,13 +16635,13 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F464" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G464" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H464" t="s">
         <v>4</v>
@@ -16628,10 +16664,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F465" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16657,10 +16693,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="F466" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16686,10 +16722,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="F467" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16715,10 +16751,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>885</v>
+        <v>595</v>
       </c>
       <c r="F468" t="s">
-        <v>886</v>
+        <v>596</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16779,7 +16815,7 @@
         <v>890</v>
       </c>
       <c r="G470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H470" t="s">
         <v>4</v>
@@ -16953,7 +16989,7 @@
         <v>902</v>
       </c>
       <c r="G476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H476" t="s">
         <v>4</v>
@@ -16976,10 +17012,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>565</v>
+        <v>903</v>
       </c>
       <c r="F477" t="s">
-        <v>566</v>
+        <v>904</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17005,10 +17041,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="F478" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17034,10 +17070,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F479" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17063,10 +17099,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F480" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17092,10 +17128,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F481" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17121,10 +17157,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F482" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17150,10 +17186,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>913</v>
+        <v>577</v>
       </c>
       <c r="F483" t="s">
-        <v>914</v>
+        <v>578</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17359,7 +17395,7 @@
         <v>928</v>
       </c>
       <c r="G490" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -17382,10 +17418,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F491" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17394,6 +17430,180 @@
         <v>4</v>
       </c>
       <c r="I491" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C492" t="s">
+        <v>1</v>
+      </c>
+      <c r="D492" t="n">
+        <v>491</v>
+      </c>
+      <c r="E492" t="s">
+        <v>931</v>
+      </c>
+      <c r="F492" t="s">
+        <v>932</v>
+      </c>
+      <c r="G492" t="n">
+        <v>1</v>
+      </c>
+      <c r="H492" t="s">
+        <v>4</v>
+      </c>
+      <c r="I492" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>0</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1</v>
+      </c>
+      <c r="D493" t="n">
+        <v>492</v>
+      </c>
+      <c r="E493" t="s">
+        <v>933</v>
+      </c>
+      <c r="F493" t="s">
+        <v>934</v>
+      </c>
+      <c r="G493" t="n">
+        <v>1</v>
+      </c>
+      <c r="H493" t="s">
+        <v>4</v>
+      </c>
+      <c r="I493" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>0</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1</v>
+      </c>
+      <c r="D494" t="n">
+        <v>493</v>
+      </c>
+      <c r="E494" t="s">
+        <v>935</v>
+      </c>
+      <c r="F494" t="s">
+        <v>936</v>
+      </c>
+      <c r="G494" t="n">
+        <v>1</v>
+      </c>
+      <c r="H494" t="s">
+        <v>4</v>
+      </c>
+      <c r="I494" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>0</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1</v>
+      </c>
+      <c r="D495" t="n">
+        <v>494</v>
+      </c>
+      <c r="E495" t="s">
+        <v>937</v>
+      </c>
+      <c r="F495" t="s">
+        <v>938</v>
+      </c>
+      <c r="G495" t="n">
+        <v>1</v>
+      </c>
+      <c r="H495" t="s">
+        <v>4</v>
+      </c>
+      <c r="I495" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>0</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1</v>
+      </c>
+      <c r="D496" t="n">
+        <v>495</v>
+      </c>
+      <c r="E496" t="s">
+        <v>939</v>
+      </c>
+      <c r="F496" t="s">
+        <v>940</v>
+      </c>
+      <c r="G496" t="n">
+        <v>10</v>
+      </c>
+      <c r="H496" t="s">
+        <v>4</v>
+      </c>
+      <c r="I496" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>0</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1</v>
+      </c>
+      <c r="D497" t="n">
+        <v>496</v>
+      </c>
+      <c r="E497" t="s">
+        <v>939</v>
+      </c>
+      <c r="F497" t="s">
+        <v>941</v>
+      </c>
+      <c r="G497" t="n">
+        <v>1</v>
+      </c>
+      <c r="H497" t="s">
+        <v>4</v>
+      </c>
+      <c r="I497" t="n">
         <v>3</v>
       </c>
     </row>
